--- a/src/basic_strategy/basic_strategy_results/basic_strategy_results.xlsx
+++ b/src/basic_strategy/basic_strategy_results/basic_strategy_results.xlsx
@@ -2,33 +2,38 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="10485" yWindow="3960" windowWidth="23895" windowHeight="13155" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="test0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="test1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="test2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="test3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="test4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="test5" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="test6" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="test7" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="test8" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="test9" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -42,27 +47,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -75,17 +65,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -460,6 +447,1244 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Hand</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Player Hand Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dealer Hand</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dealer Hand Value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Money</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>[10 of Spades, 6 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[4 of Hearts, 3 of Spades, 6 of Diamonds, 4 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>[5 of Diamonds, 4 of Diamonds, King of Clubs]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>19</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[Queen of Hearts, 9 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>19</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>[King of Spades, Jack of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[1 of Diamonds, Queen of Hearts]</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>21</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>[King of Diamonds, 6 of Hearts, 4 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[Queen of Diamonds, 7 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>17</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>[10 of Clubs, 6 of Spades, 1 of Spades]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>17</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[7 of Diamonds, 6 of Clubs, 9 of Spades]</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>22</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>[Jack of Clubs, 4 of Spades, 8 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>22</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[King of Hearts]</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['Hit']</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>[2 of Spades, King of Spades, 7 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>19</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[7 of Spades, 2 of Hearts, 1 of Spades]</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>[9 of Clubs, 10 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>19</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[2 of Hearts, 5 of Spades, 3 of Diamonds, Jack of Spades]</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>[8 of Diamonds, 2 of Spades, 2 of Clubs, 5 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>17</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[Jack of Diamonds, 10 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>['Hit', 'Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>[8 of Hearts, King of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[3 of Hearts, 7 of Clubs, 5 of Spades, 8 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>23</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>[5 of Hearts, Queen of Clubs]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>15</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[3 of Clubs, Jack of Hearts, 4 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>17</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>[2 of Diamonds, 7 of Spades, 8 of Spades]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[9 of Clubs, 10 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>19</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>[1 of Clubs, 3 of Hearts, 10 of Diamonds, 4 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>18</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[1 of Clubs, 10 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>21</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>['Hit', 'Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>[1 of Hearts, 2 of Diamonds, 4 of Spades]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[8 of Spades, Jack of Clubs]</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>18</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>[3 of Clubs, 6 of Hearts, King of Clubs]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>19</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[3 of Diamonds, 3 of Spades, Queen of Spades, Jack of Spades]</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>26</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>['Doubled']</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>[6 of Clubs, 9 of Hearts, Jack of Hearts]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>25</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[9 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>['Hit']</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>[2 of Clubs, 10 of Spades, Queen of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>22</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[1 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>11</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>['Hit']</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>[7 of Clubs, 8 of Clubs, 6 of Spades]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>21</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[9 of Spades, Queen of Spades]</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>19</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="20"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Hand</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Player Hand Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dealer Hand</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dealer Hand Value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Money</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>[4 of Clubs, King of Diamonds, 7 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[10 of Spades, King of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>[6 of Spades, 10 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[3 of Hearts, Queen of Diamonds, 1 of Hearts, 2 of Clubs, 4 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>[4 of Diamonds, Jack of Hearts, 7 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>21</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[8 of Diamonds, 10 of Spades]</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>18</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>[6 of Diamonds, 9 of Clubs, 9 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>24</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[10 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['Hit']</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>[9 of Spades, 8 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>17</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[2 of Clubs, 8 of Spades, 5 of Spades, 5 of Spades]</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>[7 of Spades, 3 of Clubs, 2 of Spades]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>12</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[3 of Diamonds, Queen of Diamonds, King of Spades]</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>23</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['Doubled']</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>[3 of Spades, 4 of Diamonds, 9 of Clubs, Queen of Hearts]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>26</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[9 of Spades]</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>9</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['Hit', 'Hit']</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>[2 of Diamonds, 4 of Hearts, 7 of Spades]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>13</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[5 of Hearts, 6 of Hearts, 5 of Diamonds, King of Clubs]</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>26</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>[8 of Hearts, 1 of Spades]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>19</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[King of Hearts, 1 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>21</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>[1 of Diamonds, 6 of Spades]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>17</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[9 of Diamonds, 4 of Hearts, 2 of Hearts, 5 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>[6 of Clubs, 6 of Diamonds, 8 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>20</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[King of Clubs, Jack of Spades]</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>20</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>[7 of Clubs, 5 of Clubs, 5 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[1 of Hearts, 2 of Spades, King of Spades, Queen of Clubs]</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>23</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>[Jack of Hearts, 7 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[4 of Spades, 8 of Diamonds, 3 of Clubs, 5 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>20</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>[10 of Clubs, 3 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[2 of Diamonds, 7 of Diamonds, 8 of Spades]</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>17</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>[10 of Diamonds, 7 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[Jack of Clubs, 8 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>18</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>[Queen of Spades, 1 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>21</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[Jack of Clubs, Queen of Clubs]</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>[1 of Spades, Jack of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>21</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[10 of Diamonds, Queen of Hearts]</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>20</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>[4 of Spades, 2 of Hearts, 1 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[Jack of Spades, 10 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -475,37 +1700,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Player Hand</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Player Hand Value</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Dealer Hand</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Dealer Hand Value</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Money</t>
         </is>
@@ -514,7 +1739,1942 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[10 of Hearts, 1 of Clubs]</t>
+          <t>[9 of Hearts, 3 of Hearts, Queen of Hearts]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>22</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[7 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['Hit']</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>[2 of Spades, 4 of Clubs, 10 of Clubs, 8 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[Queen of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['Hit', 'Hit']</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>[Queen of Clubs, King of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[8 of Diamonds, 1 of Spades]</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>19</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>[8 of Spades, 6 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>14</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[6 of Hearts, 1 of Spades]</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>17</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>[10 of Hearts, King of Clubs]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[7 of Diamonds, 1 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>18</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>[7 of Clubs, King of Clubs]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>17</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[4 of Clubs, 10 of Diamonds, 3 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>17</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>[4 of Diamonds, 1 of Clubs, 6 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>21</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[King of Spades, 2 of Diamonds, 7 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>19</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>[7 of Spades, 2 of Hearts, 10 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>19</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[2 of Diamonds, 8 of Spades, 6 of Spades, 5 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>21</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>[Queen of Clubs, 5 of Hearts, 4 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>19</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[Jack of Spades, 9 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>19</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>[King of Hearts, 4 of Spades, 2 of Clubs, King of Spades]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>26</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[Jack of Clubs]</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>['Hit', 'Hit']</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>[3 of Hearts, 5 of Spades, 9 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[10 of Diamonds, 7 of Spades]</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>17</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>[5 of Diamonds, 5 of Diamonds, 10 of Spades]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[1 of Diamonds, Jack of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>21</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>[Jack of Spades, 5 of Clubs, Queen of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>25</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[King of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>['Hit']</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>[9 of Spades, Jack of Hearts]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>19</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[3 of Diamonds, 4 of Hearts, 1 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>18</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>[7 of Hearts, 10 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[9 of Diamonds, 8 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>17</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>[6 of Clubs, 2 of Clubs, 9 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[8 of Hearts, 6 of Diamonds, 6 of Spades]</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>[3 of Clubs, Queen of Spades, Jack of Clubs]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>23</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[1 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>11</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>['Hit']</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>[Queen of Spades, 5 of Spades]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>15</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[2 of Spades, 9 of Spades, 6 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>[5 of Clubs, 8 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>13</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[3 of Spades, 4 of Spades, 9 of Diamonds, 10 of Spades]</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>26</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>[7 of Diamonds, Jack of Hearts]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>17</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[Queen of Hearts, 3 of Spades, 2 of Hearts, Jack of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>25</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Hand</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Player Hand Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dealer Hand</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dealer Hand Value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Money</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>[10 of Hearts, 8 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[3 of Spades, 7 of Hearts, Queen of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>[8 of Diamonds, 9 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[King of Spades, 5 of Diamonds, 3 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>18</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>[3 of Diamonds, 9 of Hearts, King of Clubs]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>22</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[1 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>11</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['Hit']</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>[1 of Clubs, 10 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>21</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[4 of Clubs, Jack of Hearts, 7 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>21</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>[2 of Spades, King of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[6 of Clubs, Queen of Spades, 4 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>[2 of Hearts, Jack of Diamonds, 6 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[King of Diamonds, 8 of Spades]</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>[Queen of Clubs, Jack of Hearts]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[3 of Hearts, Queen of Spades, 10 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>23</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>[9 of Clubs, 3 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>12</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[6 of Clubs, 7 of Clubs, 1 of Hearts, 3 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>17</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>[10 of Spades, 7 of Spades]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>17</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[Queen of Hearts, King of Clubs]</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>[10 of Clubs, 5 of Spades, Queen of Hearts]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>25</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[7 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>['Hit']</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>[5 of Clubs, 3 of Clubs, 1 of Spades]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>19</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[7 of Spades, 2 of Diamonds, 9 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>18</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>[5 of Spades, 5 of Diamonds, King of Hearts]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[4 of Spades, Jack of Clubs, 2 of Diamonds, 8 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>24</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>['Doubled']</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>[4 of Hearts, 4 of Diamonds, King of Spades]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>18</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[2 of Clubs, 6 of Hearts, 9 of Spades]</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>17</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>[1 of Hearts, 10 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>21</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[2 of Clubs, Queen of Clubs, 1 of Spades, 6 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>19</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>[Queen of Diamonds, 10 of Spades]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>20</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[2 of Hearts, 7 of Diamonds, 9 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>18</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>[7 of Diamonds, 10 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[3 of Spades, 4 of Clubs, 5 of Hearts, 1 of Diamonds, 5 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>18</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>[Jack of Clubs, Jack of Spades]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>20</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[1 of Diamonds, King of Hearts]</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>21</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>[Jack of Spades, 6 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[2 of Spades, 8 of Spades, Jack of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>[9 of Spades, 8 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[8 of Hearts, 6 of Spades, 9 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>23</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Hand</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Player Hand Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dealer Hand</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dealer Hand Value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Money</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>[10 of Spades, Queen of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[Jack of Spades, 10 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>[3 of Spades, 8 of Diamonds, 9 of Spades]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[5 of Clubs, 9 of Clubs, 8 of Spades]</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>22</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['Doubled']</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>[King of Diamonds, 7 of Spades]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>17</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[9 of Diamonds, 7 of Spades, Jack of Clubs]</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>26</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>[4 of Hearts, 4 of Clubs, King of Clubs]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[1 of Spades, 3 of Diamonds, 7 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>21</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>[10 of Spades, 5 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>15</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[4 of Hearts, Queen of Spades, Queen of Clubs]</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>24</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>[8 of Clubs, Queen of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[6 of Hearts, 1 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>17</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>[2 of Diamonds, King of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[6 of Spades, 4 of Diamonds, Queen of Spades]</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>[2 of Hearts, 9 of Clubs, King of Hearts]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>21</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[8 of Spades, 3 of Clubs, Jack of Clubs]</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>21</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>['Doubled']</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>[1 of Diamonds, 8 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>19</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[9 of Hearts, Queen of Clubs]</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>19</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>[4 of Spades, 7 of Hearts, 5 of Spades]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>16</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[King of Clubs, 2 of Clubs, 3 of Hearts, 1 of Hearts, 8 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>24</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>['Doubled']</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>[1 of Hearts, Jack of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>21</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[4 of Diamonds, Jack of Hearts, 9 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>23</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>[7 of Diamonds, 5 of Clubs, 6 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>18</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[1 of Spades, 3 of Diamonds, 7 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>21</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>[2 of Spades, 4 of Spades, 1 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[3 of Hearts, 2 of Clubs, 5 of Diamonds, 3 of Clubs, 10 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>23</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>[4 of Clubs, King of Spades, 9 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>23</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[10 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>['Hit']</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>[8 of Diamonds, 5 of Hearts, Jack of Hearts]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>23</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[7 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>7</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>['Hit']</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>[8 of Hearts, 10 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>18</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[King of Hearts, 2 of Spades, Queen of Hearts]</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>22</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>[Queen of Hearts, 5 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>15</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[3 of Spades, 2 of Hearts, 6 of Diamonds, 5 of Spades, 10 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>26</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>[Jack of Diamonds, 6 of Spades]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[6 of Hearts, King of Spades, 6 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>22</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Hand</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Player Hand Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dealer Hand</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dealer Hand Value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Money</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>[4 of Hearts, Jack of Diamonds, 7 of Clubs]</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -522,15 +3682,1243 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[King of Spades, 1 of Hearts]</t>
+          <t>[10 of Hearts, 5 of Diamonds, 2 of Spades]</t>
         </is>
       </c>
       <c r="D2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>[1 of Diamonds, Queen of Spades]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>21</v>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[King of Hearts, 4 of Clubs, 9 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>23</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>[2 of Hearts, 1 of Clubs, 6 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>19</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[8 of Hearts, 5 of Spades, 7 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>[3 of Diamonds, King of Clubs, 2 of Diamonds, 5 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[1 of Clubs, Queen of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>21</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['Hit', 'Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>[Jack of Spades, 3 of Hearts, 2 of Spades, 10 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>25</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[9 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>9</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['Hit', 'Hit']</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>[8 of Spades, King of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[8 of Diamonds, 6 of Clubs, 3 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>17</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>[9 of Spades, 3 of Spades, King of Hearts]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>22</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[Queen of Clubs]</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['Hit']</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>[1 of Spades, 7 of Spades]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[4 of Clubs, 8 of Clubs, 9 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>21</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>[Jack of Hearts, 6 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>16</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[2 of Diamonds, 10 of Clubs, 10 of Spades]</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>22</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>[3 of Diamonds, 9 of Spades, 9 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>21</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[10 of Hearts, 7 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>17</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>[5 of Diamonds, 1 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>16</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[2 of Clubs, 1 of Hearts, 10 of Diamonds, 1 of Hearts, Queen of Hearts]</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>24</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>[8 of Spades, King of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>18</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[Jack of Hearts, 4 of Spades, King of Spades]</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>24</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>[9 of Diamonds, 7 of Spades, 3 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>19</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[King of Spades, 8 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>18</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>[4 of Diamonds, Queen of Diamonds, 4 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>18</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[Jack of Spades, 8 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>18</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>[4 of Hearts, King of Clubs]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[2 of Clubs, 6 of Spades, 6 of Hearts, 1 of Spades, 10 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>25</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>[Jack of Clubs, 6 of Hearts, 5 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>21</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[8 of Clubs, Queen of Clubs]</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>18</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>[Queen of Spades, 5 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>15</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[6 of Diamonds, Jack of Diamonds, 6 of Spades]</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>22</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>[5 of Clubs, 9 of Hearts, 3 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[Queen of Hearts, Jack of Clubs]</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Hand</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Player Hand Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dealer Hand</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dealer Hand Value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Money</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>[1 of Spades, 2 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[5 of Clubs, King of Clubs, 2 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>17</v>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>[9 of Spades, Queen of Clubs]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>19</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[Jack of Hearts, 8 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>18</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>[7 of Diamonds, 10 of Spades]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>17</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[10 of Clubs, Queen of Hearts]</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>[4 of Hearts, Queen of Clubs, 4 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[8 of Spades, 2 of Clubs, 2 of Spades, 2 of Diamonds, 5 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>19</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>[6 of Hearts, King of Spades, 5 of Spades]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>21</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[9 of Diamonds, 6 of Spades, 6 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Tie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>[Jack of Hearts, Jack of Spades]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[6 of Diamonds, 7 of Spades, 10 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>23</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>[Jack of Clubs, 2 of Spades, Queen of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>22</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[King of Clubs]</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['Hit']</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>[King of Spades, 2 of Clubs, 3 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>15</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[3 of Diamonds, Queen of Spades, 3 of Clubs, 10 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>26</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>[5 of Diamonds, 4 of Hearts, 10 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>19</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[6 of Clubs, 8 of Hearts, 7 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>21</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>['Doubled']</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>[King of Diamonds, Queen of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>20</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[3 of Hearts, 7 of Spades, 9 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>19</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>[10 of Spades, 5 of Hearts, 2 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[Jack of Diamonds, 5 of Clubs, 3 of Spades]</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>18</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>[1 of Hearts, 7 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>18</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[1 of Spades, 1 of Hearts, 9 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>21</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>[7 of Hearts, 1 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>18</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[6 of Hearts, 8 of Spades, 1 of Clubs, 1 of Clubs, 8 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>24</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>[6 of Spades, 9 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[3 of Spades, 8 of Clubs, 3 of Diamonds, 4 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>18</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>[8 of Diamonds, 10 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>18</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[4 of Clubs, 9 of Hearts, 7 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>[5 of Hearts, King of Hearts]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[3 of Hearts, 4 of Spades, 5 of Spades, King of Hearts]</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>22</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>[9 of Clubs, Queen of Hearts]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>19</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[9 of Spades, 4 of Diamonds, 4 of Spades]</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>[Jack of Spades, 6 of Diamonds, Jack of Clubs]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>26</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[8 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>8</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>['Hit']</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Hand</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Player Hand Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dealer Hand</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dealer Hand Value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Money</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>[Queen of Diamonds, King of Spades]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[4 of Spades, 9 of Spades, King of Hearts]</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -545,50 +4933,50 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[Jack of Spades, 5 of Clubs, 9 of Hearts]</t>
+          <t>[8 of Spades, 7 of Clubs]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[7 of Clubs]</t>
+          <t>[3 of Spades, 3 of Hearts, King of Diamonds, 6 of Spades]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['Hit']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[5 of Spades, 7 of Hearts]</t>
+          <t>[8 of Clubs, 9 of Hearts]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[5 of Diamonds, Jack of Hearts, 8 of Diamonds]</t>
+          <t>[6 of Diamonds, Jack of Spades, King of Clubs]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -601,13 +4989,627 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[7 of Spades, 10 of Spades]</t>
+          <t>[1 of Clubs, Queen of Spades]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>21</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[1 of Diamonds, 2 of Clubs, 7 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>[5 of Hearts, Jack of Clubs, 7 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>22</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[King of Clubs]</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['Hit']</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>[6 of Clubs, 10 of Diamonds, 4 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[10 of Clubs, 6 of Diamonds, 1 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>17</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>[5 of Clubs, 10 of Diamonds, 8 of Spades]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>23</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[1 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>11</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['Hit']</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>[8 of Diamonds, King of Hearts]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[8 of Clubs, Jack of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>[10 of Hearts, 8 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[8 of Hearts, 8 of Diamonds, 2 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>18</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>[King of Diamonds, 9 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>19</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[6 of Clubs, 9 of Diamonds, 7 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>22</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>[1 of Spades, 1 of Spades, 6 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>18</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[King of Spades, 4 of Diamonds, Jack of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>24</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>[5 of Spades, 3 of Clubs, 2 of Hearts, 2 of Hearts, 7 of Spades]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>19</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[Queen of Spades, 3 of Diamonds, 2 of Spades, 3 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>18</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>['Hit', 'Hit', 'Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>[Queen of Clubs, 1 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>21</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[7 of Diamonds, Jack of Hearts]</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>17</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>[4 of Clubs, 4 of Hearts, 9 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[4 of Hearts, 2 of Diamonds, 4 of Diamonds, 3 of Clubs, 3 of Hearts, Queen of Hearts]</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>26</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>[5 of Diamonds, 5 of Clubs, 10 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>20</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[10 of Spades, Jack of Spades]</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>[2 of Spades, 1 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>13</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[5 of Diamonds, Jack of Hearts, 7 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>22</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>[Queen of Clubs, 9 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>19</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[5 of Spades, 10 of Spades, Queen of Hearts]</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>25</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>[6 of Spades, 3 of Spades, 6 of Hearts, 5 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>20</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[9 of Clubs, 10 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>19</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>['Hit', 'Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Hand</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Player Hand Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dealer Hand</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dealer Hand Value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Money</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>[6 of Clubs, King of Clubs, 4 of Spades]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[Queen of Diamonds, 9 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>[3 of Diamonds, 5 of Hearts, 8 of Diamonds, 3 of Spades]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>19</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[Jack of Hearts, King of Spades]</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['Hit', 'Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>[2 of Spades, King of Hearts, 2 of Clubs, Queen of Spades]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[7 of Spades]</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['Hit', 'Hit']</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>[Queen of Clubs, 6 of Diamonds, 1 of Hearts]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -615,7 +5617,621 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[Queen of Clubs, 10 of Clubs]</t>
+          <t>[8 of Hearts, King of Spades]</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>18</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>[4 of Diamonds, 7 of Hearts, 7 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[4 of Clubs, Jack of Clubs, 4 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>18</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['Doubled']</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>[10 of Clubs, King of Clubs]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[9 of Diamonds, 9 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>[2 of Diamonds, 10 of Hearts, 7 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>19</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[2 of Hearts, 10 of Diamonds, 5 of Spades]</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>17</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>[Queen of Diamonds, 10 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>20</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[Queen of Spades, 8 of Spades]</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>[8 of Hearts, 6 of Spades, 8 of Spades]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>22</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[7 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>['Hit']</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>[3 of Hearts, 6 of Clubs, Jack of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>19</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[9 of Clubs, 2 of Clubs, Jack of Hearts]</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>21</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>[6 of Diamonds, 4 of Diamonds, 2 of Diamonds, 1 of Spades, 3 of Diamonds, 9 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>25</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[Queen of Clubs]</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>['Hit', 'Hit', 'Hit', 'Hit']</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>[8 of Clubs, 3 of Hearts, 1 of Spades]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[8 of Clubs, 6 of Hearts, Jack of Clubs]</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>24</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>['Doubled']</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>[Jack of Spades, 4 of Hearts, 5 of Spades]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>19</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[7 of Clubs, 4 of Spades, 7 of Spades]</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>18</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>[2 of Spades, 1 of Hearts, 3 of Clubs, 10 of Spades, 10 of Spades]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>26</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[9 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>9</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>['Hit', 'Hit', 'Hit']</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>[10 of Diamonds, Jack of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>20</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[King of Hearts, 9 of Spades]</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>19</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>[Jack of Spades, King of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>20</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[8 of Diamonds, 1 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>19</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>[5 of Clubs, 3 of Spades, 7 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>15</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[2 of Hearts, 9 of Spades, 5 of Clubs, Queen of Hearts]</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>26</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>[3 of Clubs, 1 of Clubs, 6 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>20</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[1 of Clubs, 5 of Diamonds, 1 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Hand</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Player Hand Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dealer Hand</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dealer Hand Value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Money</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>[King of Spades, 3 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[2 of Spades, Queen of Clubs, 6 of Spades]</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>[King of Diamonds, 6 of Spades, Queen of Spades]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>26</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[8 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['Hit']</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>[9 of Spades, 5 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>14</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[3 of Hearts, 8 of Hearts, 2 of Clubs, 9 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>22</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>[King of Hearts, 1 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>21</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[2 of Hearts, 9 of Clubs, 9 of Diamonds]</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -623,7 +6239,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -632,60 +6248,60 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>900</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[King of Diamonds, 4 of Spades, 10 of Clubs]</t>
+          <t>[9 of Hearts, 5 of Diamonds, 5 of Hearts]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[9 of Spades]</t>
+          <t>[7 of Clubs, King of Clubs]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['Hit']</t>
+          <t>['Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>800</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[8 of Diamonds, 9 of Clubs]</t>
+          <t>[Jack of Diamonds, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, 2 of Diamonds, 8 of Spades, 2 of Clubs, Queen of Hearts]</t>
+          <t>[1 of Clubs, 10 of Hearts]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -694,29 +6310,29 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>900</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[3 of Hearts, Queen of Spades]</t>
+          <t>[10 of Clubs, 2 of Diamonds]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[2 of Spades, Jack of Clubs, 3 of Spades, 6 of Spades]</t>
+          <t>[5 of Spades, 7 of Hearts, 2 of Diamonds, Jack of Hearts]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -725,52 +6341,52 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>800</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[6 of Hearts, 7 of Clubs, 9 of Hearts]</t>
+          <t>[4 of Spades, 5 of Diamonds, 1 of Spades]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds]</t>
+          <t>[6 of Hearts, 10 of Diamonds, 5 of Clubs]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['Hit']</t>
+          <t>['Doubled']</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>700</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[9 of Clubs, 6 of Diamonds]</t>
+          <t>[10 of Clubs, 9 of Spades]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[4 of Spades, 10 of Diamonds, 3 of Clubs]</t>
+          <t>[7 of Clubs, 10 of Spades]</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -778,7 +6394,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -787,29 +6403,29 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[King of Hearts, Queen of Diamonds]</t>
+          <t>[Jack of Spades, 4 of Clubs]</t>
         </is>
       </c>
       <c r="B11" t="n">
+        <v>14</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[3 of Clubs, 7 of Hearts, Queen of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>20</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>[7 of Diamonds, 10 of Hearts]</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>17</v>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -818,60 +6434,60 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>700</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[King of Hearts, 4 of Clubs, Jack of Clubs]</t>
+          <t>[3 of Clubs, King of Clubs, 3 of Hearts, 5 of Clubs]</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[9 of Spades]</t>
+          <t>[7 of Diamonds, 6 of Clubs, 2 of Clubs, 8 of Diamonds]</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['Hit']</t>
+          <t>['Hit', 'Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, 1 of Diamonds]</t>
+          <t>[8 of Diamonds, 1 of Hearts]</t>
         </is>
       </c>
       <c r="B13" t="n">
+        <v>19</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[6 of Hearts, 10 of Spades, 5 of Spades]</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>21</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>[3 of Diamonds, 2 of Hearts, 8 of Hearts, 7 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>20</v>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -880,91 +6496,91 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>700</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[6 of Clubs, 3 of Diamonds, 3 of Spades]</t>
+          <t>[Jack of Hearts, 8 of Spades]</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[5 of Diamonds, Queen of Diamonds, Jack of Diamonds]</t>
+          <t>[1 of Diamonds, 10 of Hearts]</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['Doubled']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>700</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[Queen of Clubs, 2 of Spades, 4 of Clubs, 4 of Hearts]</t>
+          <t>[8 of Hearts, King of Diamonds]</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[King of Clubs, 6 of Clubs, 5 of Clubs]</t>
+          <t>[6 of Clubs, 1 of Clubs]</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['Hit', 'Hit', 'Stand']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>600</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[Queen of Hearts, Jack of Spades]</t>
+          <t>[9 of Clubs, Jack of Clubs]</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[2 of Clubs, 1 of Hearts, King of Spades, 8 of Clubs]</t>
+          <t>[Queen of Spades, 4 of Diamonds, 4 of Hearts]</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -973,56 +6589,56 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[3 of Clubs, 6 of Hearts, 9 of Diamonds]</t>
+          <t>[4 of Diamonds, Queen of Clubs, 9 of Hearts]</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[4 of Hearts, 10 of Diamonds, 8 of Spades]</t>
+          <t>[1 of Hearts]</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['Doubled']</t>
+          <t>['Hit']</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>500</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, 9 of Diamonds]</t>
+          <t>[2 of Spades, 4 of Clubs, 8 of Spades, Jack of Diamonds]</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[6 of Spades, 7 of Spades, 4 of Diamonds]</t>
+          <t>[Jack of Clubs]</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1031,29 +6647,29 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Hit', 'Hit']</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>400</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[5 of Spades, 8 of Clubs]</t>
+          <t>[3 of Spades, King of Hearts, 7 of Spades]</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[3 of Hearts, Queen of Spades, 6 of Diamonds]</t>
+          <t>[7 of Spades, 4 of Hearts, Queen of Hearts]</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1062,33 +6678,33 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>300</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[7 of Hearts, 1 of Clubs]</t>
+          <t>[King of Spades, 7 of Diamonds]</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[2 of Hearts, King of Clubs, 1 of Spades, 1 of Spades, 5 of Hearts]</t>
+          <t>[2 of Hearts, 6 of Diamonds, 6 of Diamonds, 3 of Spades]</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Tie</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1097,17 +6713,8 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+        <v>2200</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/basic_strategy/basic_strategy_results/basic_strategy_results.xlsx
+++ b/src/basic_strategy/basic_strategy_results/basic_strategy_results.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,19 +501,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[10 of Spades, 6 of Diamonds]</t>
+          <t>[3 of Diamonds, 9 of Hearts, 6 of Diamonds]</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[4 of Hearts, 3 of Spades, 6 of Diamonds, 4 of Clubs]</t>
+          <t>[2 of Clubs, King of Hearts, 8 of Diamonds]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -522,29 +522,29 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2100</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[5 of Diamonds, 4 of Diamonds, King of Clubs]</t>
+          <t>[6 of Clubs, 4 of Spades, King of Diamonds]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[Queen of Hearts, 9 of Hearts]</t>
+          <t>[Queen of Spades, Jack of Diamonds]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -557,56 +557,56 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2100</v>
+        <v>900</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[King of Spades, Jack of Diamonds]</t>
+          <t>[1 of Spades, 3 of Clubs, King of Diamonds, 5 of Clubs]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[1 of Diamonds, Queen of Hearts]</t>
+          <t>[1 of Diamonds, 1 of Diamonds, 10 of Hearts, Queen of Spades]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Hit', 'Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[King of Diamonds, 6 of Hearts, 4 of Clubs]</t>
+          <t>[3 of Spades, 10 of Clubs]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[Queen of Diamonds, 7 of Hearts]</t>
+          <t>[5 of Clubs, 10 of Clubs, 8 of Diamonds]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -615,79 +615,79 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2100</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[10 of Clubs, 6 of Spades, 1 of Spades]</t>
+          <t>[Queen of Diamonds, 5 of Diamonds, Queen of Clubs]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[7 of Diamonds, 6 of Clubs, 9 of Spades]</t>
+          <t>[9 of Spades]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Hit']</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[Jack of Clubs, 4 of Spades, 8 of Diamonds]</t>
+          <t>[8 of Clubs, King of Clubs]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[King of Hearts]</t>
+          <t>[10 of Spades, 8 of Hearts]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Tie</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['Hit']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[2 of Spades, King of Spades, 7 of Hearts]</t>
+          <t>[Jack of Hearts, 9 of Diamonds]</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -695,11 +695,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[7 of Spades, 2 of Hearts, 1 of Spades]</t>
+          <t>[2 of Clubs, 6 of Hearts, 6 of Spades, 7 of Hearts]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -708,126 +708,126 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[9 of Clubs, 10 of Hearts]</t>
+          <t>[4 of Spades, 6 of Clubs, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[2 of Hearts, 5 of Spades, 3 of Diamonds, Jack of Spades]</t>
+          <t>[2 of Hearts, 2 of Spades, 8 of Spades, Jack of Spades]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Doubled']</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1900</v>
+        <v>900</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[8 of Diamonds, 2 of Spades, 2 of Clubs, 5 of Hearts]</t>
+          <t>[5 of Hearts, 4 of Hearts, 4 of Diamonds, 2 of Diamonds, 6 of Spades]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, 10 of Hearts]</t>
+          <t>[8 of Hearts, 2 of Hearts, 1 of Spades]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Tie</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['Hit', 'Hit', 'Stand']</t>
+          <t>['Hit', 'Hit', 'Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[8 of Hearts, King of Diamonds]</t>
+          <t>[4 of Clubs, 10 of Diamonds, King of Spades]</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 7 of Clubs, 5 of Spades, 8 of Clubs]</t>
+          <t>[Queen of Hearts]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Hit']</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1900</v>
+        <v>800</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[5 of Hearts, Queen of Clubs]</t>
+          <t>[Queen of Clubs, King of Spades]</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[3 of Clubs, Jack of Hearts, 4 of Hearts]</t>
+          <t>[4 of Diamonds, 6 of Hearts, 2 of Spades, Jack of Diamonds]</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -836,21 +836,21 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, 7 of Spades, 8 of Spades]</t>
+          <t>[8 of Spades, 4 of Hearts, 9 of Diamonds]</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[9 of Clubs, 10 of Clubs]</t>
+          <t>[9 of Clubs, Jack of Clubs]</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -858,7 +858,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -867,25 +867,25 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[1 of Clubs, 3 of Hearts, 10 of Diamonds, 4 of Diamonds]</t>
+          <t>[4 of Clubs, Queen of Hearts]</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[1 of Clubs, 10 of Diamonds]</t>
+          <t>[5 of Spades, 3 of Hearts, 1 of Hearts]</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -894,169 +894,137 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['Hit', 'Hit', 'Stand']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1600</v>
+        <v>900</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[1 of Hearts, 2 of Diamonds, 4 of Spades]</t>
+          <t>[1 of Clubs, 9 of Clubs]</t>
         </is>
       </c>
       <c r="B15" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[7 of Diamonds, 10 of Spades]</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>17</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>[8 of Spades, Jack of Clubs]</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>18</v>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[3 of Clubs, 6 of Hearts, King of Clubs]</t>
+          <t>[6 of Diamonds, 8 of Clubs]</t>
         </is>
       </c>
       <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[3 of Clubs, 7 of Clubs, 5 of Diamonds, 1 of Clubs, 3 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>19</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>[3 of Diamonds, 3 of Spades, Queen of Spades, Jack of Spades]</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>26</v>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['Doubled']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[6 of Clubs, 9 of Hearts, Jack of Hearts]</t>
+          <t>[3 of Spades, 7 of Spades, Jack of Spades]</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[9 of Diamonds]</t>
+          <t>[10 of Hearts, Jack of Clubs]</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Tie</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['Hit']</t>
+          <t>['Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[2 of Clubs, 10 of Spades, Queen of Diamonds]</t>
+          <t>[9 of Hearts, 2 of Diamonds, King of Hearts]</t>
         </is>
       </c>
       <c r="B18" t="n">
+        <v>21</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[5 of Spades, King of Clubs, 7 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
         <v>22</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>[1 of Hearts]</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>11</v>
-      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['Hit']</t>
+          <t>['Doubled']</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>[7 of Clubs, 8 of Clubs, 6 of Spades]</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>21</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>[9 of Spades, Queen of Spades]</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>19</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>['Hit', 'Stand']</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="20"/>
+        <v>900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1116,20 +1084,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[4 of Clubs, King of Diamonds, 7 of Hearts]</t>
+          <t>[5 of Hearts, 6 of Spades, 6 of Diamonds]</t>
         </is>
       </c>
       <c r="B2" t="n">
+        <v>17</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[Queen of Diamonds, 1 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>21</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[10 of Spades, King of Diamonds]</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>20</v>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Win</t>
@@ -1137,33 +1105,33 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Doubled']</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[6 of Spades, 10 of Hearts]</t>
+          <t>[7 of Diamonds, King of Hearts]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[3 of Hearts, Queen of Diamonds, 1 of Hearts, 2 of Clubs, 4 of Clubs]</t>
+          <t>[5 of Spades, 7 of Diamonds, 5 of Diamonds]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Tie</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1172,56 +1140,56 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, Jack of Hearts, 7 of Diamonds]</t>
+          <t>[8 of Hearts, 9 of Hearts]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[8 of Diamonds, 10 of Spades]</t>
+          <t>[Queen of Hearts, 9 of Clubs]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[6 of Diamonds, 9 of Clubs, 9 of Diamonds]</t>
+          <t>[2 of Hearts, Jack of Spades, 10 of Diamonds]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[10 of Clubs]</t>
+          <t>[8 of Spades]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1234,29 +1202,29 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[9 of Spades, 8 of Hearts]</t>
+          <t>[10 of Hearts, 3 of Hearts]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[2 of Clubs, 8 of Spades, 5 of Spades, 5 of Spades]</t>
+          <t>[5 of Spades, 9 of Diamonds, 8 of Diamonds]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1265,114 +1233,114 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[7 of Spades, 3 of Clubs, 2 of Spades]</t>
+          <t>[Jack of Clubs, 2 of Hearts, 10 of Spades]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[3 of Diamonds, Queen of Diamonds, King of Spades]</t>
+          <t>[3 of Diamonds]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['Doubled']</t>
+          <t>['Hit']</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[3 of Spades, 4 of Diamonds, 9 of Clubs, Queen of Hearts]</t>
+          <t>[Jack of Diamonds, 10 of Clubs]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[9 of Spades]</t>
+          <t>[8 of Hearts, King of Clubs]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['Hit', 'Hit']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, 4 of Hearts, 7 of Spades]</t>
+          <t>[4 of Hearts, Queen of Diamonds, 9 of Hearts]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[5 of Hearts, 6 of Hearts, 5 of Diamonds, King of Clubs]</t>
+          <t>[Jack of Diamonds]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Hit']</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[8 of Hearts, 1 of Spades]</t>
+          <t>[10 of Clubs, King of Diamonds]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[King of Hearts, 1 of Diamonds]</t>
+          <t>[Queen of Clubs, 1 of Clubs]</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1389,13 +1357,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[1 of Diamonds, 6 of Spades]</t>
+          <t>[Queen of Hearts, 3 of Diamonds, 1 of Diamonds, 2 of Clubs, 1 of Diamonds]</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1403,7 +1371,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[9 of Diamonds, 4 of Hearts, 2 of Hearts, 5 of Hearts]</t>
+          <t>[Jack of Spades, Queen of Clubs]</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -1416,33 +1384,33 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Hit', 'Hit', 'Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[6 of Clubs, 6 of Diamonds, 8 of Clubs]</t>
+          <t>[2 of Diamonds, King of Spades, 6 of Diamonds]</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[King of Clubs, Jack of Spades]</t>
+          <t>[King of Clubs, 7 of Spades]</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1451,25 +1419,25 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[7 of Clubs, 5 of Clubs, 5 of Diamonds]</t>
+          <t>[Queen of Spades, King of Hearts]</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[1 of Hearts, 2 of Spades, King of Spades, Queen of Clubs]</t>
+          <t>[1 of Spades, 7 of Spades]</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1478,29 +1446,29 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, 7 of Clubs]</t>
+          <t>[5 of Diamonds, 2 of Spades, 7 of Hearts]</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[4 of Spades, 8 of Diamonds, 3 of Clubs, 5 of Clubs]</t>
+          <t>[4 of Diamonds, 3 of Spades, 6 of Hearts, 5 of Clubs]</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1509,33 +1477,33 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[10 of Clubs, 3 of Diamonds]</t>
+          <t>[Jack of Clubs, 1 of Hearts]</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, 7 of Diamonds, 8 of Spades]</t>
+          <t>[4 of Spades, King of Spades, Jack of Hearts]</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1550,54 +1518,54 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[10 of Diamonds, 7 of Hearts]</t>
+          <t>[5 of Hearts, 6 of Spades, 9 of Spades]</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[Jack of Clubs, 8 of Clubs]</t>
+          <t>[10 of Hearts, 3 of Hearts, 10 of Diamonds]</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Doubled']</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[Queen of Spades, 1 of Clubs]</t>
+          <t>[Jack of Hearts, 7 of Clubs]</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[Jack of Clubs, Queen of Clubs]</t>
+          <t>[4 of Clubs, 4 of Hearts, 7 of Clubs, 2 of Diamonds]</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Tie</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1612,19 +1580,19 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[1 of Spades, Jack of Diamonds]</t>
+          <t>[8 of Spades, 9 of Diamonds]</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[10 of Diamonds, Queen of Hearts]</t>
+          <t>[3 of Clubs, 4 of Spades, 6 of Clubs, 10 of Spades]</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1643,42 +1611,64 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[4 of Spades, 2 of Hearts, 1 of Clubs]</t>
+          <t>[7 of Hearts, 4 of Diamonds, 3 of Clubs]</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Jack of Spades, 10 of Hearts]</t>
+          <t>[8 of Clubs, 1 of Hearts]</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Doubled']</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>[2 of Clubs, 1 of Spades, Queen of Spades, 5 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[King of Diamonds, 6 of Clubs, 8 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>24</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>['Hit', 'Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1400</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1691,7 +1681,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1739,50 +1729,50 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[9 of Hearts, 3 of Hearts, Queen of Hearts]</t>
+          <t>[4 of Diamonds, 8 of Hearts, 9 of Spades]</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[7 of Clubs]</t>
+          <t>[3 of Diamonds, King of Diamonds, 5 of Diamonds]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['Hit']</t>
+          <t>['Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[2 of Spades, 4 of Clubs, 10 of Clubs, 8 of Hearts]</t>
+          <t>[2 of Diamonds, 3 of Hearts, 2 of Clubs, 2 of Diamonds, Jack of Clubs]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[Queen of Diamonds]</t>
+          <t>[4 of Clubs, 7 of Diamonds, Queen of Spades]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1791,17 +1781,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['Hit', 'Hit']</t>
+          <t>['Hit', 'Hit', 'Hit', 'Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[Queen of Clubs, King of Diamonds]</t>
+          <t>[King of Clubs, 5 of Clubs, 1 of Diamonds, 4 of Hearts]</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1809,11 +1799,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[8 of Diamonds, 1 of Spades]</t>
+          <t>[Jack of Clubs, 3 of Clubs, 5 of Spades]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1822,33 +1812,33 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Hit', 'Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[8 of Spades, 6 of Hearts]</t>
+          <t>[10 of Diamonds, Queen of Clubs]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[6 of Hearts, 1 of Spades]</t>
+          <t>[King of Hearts, 9 of Diamonds]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1857,106 +1847,106 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[10 of Hearts, King of Clubs]</t>
+          <t>[King of Diamonds, 5 of Diamonds, 10 of Clubs]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[7 of Diamonds, 1 of Hearts]</t>
+          <t>[1 of Spades]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Hit']</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[7 of Clubs, King of Clubs]</t>
+          <t>[6 of Spades, 3 of Clubs, 6 of Hearts, King of Hearts]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[4 of Clubs, 10 of Diamonds, 3 of Diamonds]</t>
+          <t>[8 of Hearts]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Hit', 'Hit']</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, 1 of Clubs, 6 of Diamonds]</t>
+          <t>[4 of Spades, 2 of Clubs, 8 of Diamonds, 8 of Diamonds]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[King of Spades, 2 of Diamonds, 7 of Hearts]</t>
+          <t>[10 of Spades]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Hit', 'Hit']</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[7 of Spades, 2 of Hearts, 10 of Hearts]</t>
+          <t>[8 of Spades, 1 of Spades]</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1964,38 +1954,38 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, 8 of Spades, 6 of Spades, 5 of Hearts]</t>
+          <t>[5 of Hearts, King of Spades, 1 of Clubs, 10 of Spades]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[Queen of Clubs, 5 of Hearts, 4 of Hearts]</t>
+          <t>[King of Spades, Queen of Hearts]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[Jack of Spades, 9 of Clubs]</t>
+          <t>[10 of Clubs, 5 of Hearts, 4 of Spades]</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -2003,34 +1993,34 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[King of Hearts, 4 of Spades, 2 of Clubs, King of Spades]</t>
+          <t>[8 of Clubs, 9 of Hearts]</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[Jack of Clubs]</t>
+          <t>[6 of Diamonds, 9 of Diamonds, 4 of Diamonds]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -2039,33 +2029,33 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['Hit', 'Hit']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 5 of Spades, 9 of Hearts]</t>
+          <t>[3 of Diamonds, 6 of Spades, Jack of Hearts]</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[10 of Diamonds, 7 of Spades]</t>
+          <t>[2 of Spades, Queen of Diamonds, 6 of Diamonds]</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2074,29 +2064,29 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[5 of Diamonds, 5 of Diamonds, 10 of Spades]</t>
+          <t>[2 of Spades, King of Clubs, 6 of Clubs]</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[1 of Diamonds, Jack of Diamonds]</t>
+          <t>[9 of Spades, 4 of Hearts, Jack of Spades]</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -2105,25 +2095,25 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[Jack of Spades, 5 of Clubs, Queen of Diamonds]</t>
+          <t>[Jack of Hearts, 5 of Clubs]</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[King of Diamonds]</t>
+          <t>[6 of Hearts, 1 of Clubs]</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2132,29 +2122,29 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['Hit']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[9 of Spades, Jack of Hearts]</t>
+          <t>[1 of Hearts, 9 of Hearts]</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[3 of Diamonds, 4 of Hearts, 1 of Diamonds]</t>
+          <t>[Jack of Spades, 2 of Hearts, 3 of Spades, 7 of Hearts]</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2167,13 +2157,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[7 of Hearts, 10 of Clubs]</t>
+          <t>[2 of Hearts, 8 of Clubs, 7 of Spades]</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2181,7 +2171,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[9 of Diamonds, 8 of Clubs]</t>
+          <t>[Queen of Clubs, 7 of Clubs]</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -2194,17 +2184,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[6 of Clubs, 2 of Clubs, 9 of Clubs]</t>
+          <t>[7 of Hearts, 10 of Hearts]</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2212,42 +2202,42 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[8 of Hearts, 6 of Diamonds, 6 of Spades]</t>
+          <t>[7 of Spades, Jack of Diamonds]</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Tie</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[3 of Clubs, Queen of Spades, Jack of Clubs]</t>
+          <t>[7 of Diamonds, 8 of Spades, 4 of Clubs]</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[1 of Hearts]</t>
+          <t>[1 of Diamonds, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2256,104 +2246,42 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['Hit']</t>
+          <t>['Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[Queen of Spades, 5 of Spades]</t>
+          <t>[6 of Clubs, Queen of Hearts, 5 of Spades]</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[2 of Spades, 9 of Spades, 6 of Clubs]</t>
+          <t>[9 of Clubs, 1 of Hearts]</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>[5 of Clubs, 8 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>13</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>[3 of Spades, 4 of Spades, 9 of Diamonds, 10 of Spades]</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>26</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>['Stand']</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>[7 of Diamonds, Jack of Hearts]</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>17</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>[Queen of Hearts, 3 of Spades, 2 of Hearts, Jack of Diamonds]</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>25</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>['Stand']</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
   </sheetData>
@@ -2415,7 +2343,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[10 of Hearts, 8 of Clubs]</t>
+          <t>[1 of Hearts, 7 of Hearts]</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2423,7 +2351,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[3 of Spades, 7 of Hearts, Queen of Diamonds]</t>
+          <t>[Jack of Spades, Jack of Hearts]</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -2440,21 +2368,21 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[8 of Diamonds, 9 of Clubs]</t>
+          <t>[10 of Spades, 6 of Hearts]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[King of Spades, 5 of Diamonds, 3 of Hearts]</t>
+          <t>[2 of Spades, 2 of Hearts, 1 of Clubs, 3 of Spades]</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -2471,60 +2399,60 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[3 of Diamonds, 9 of Hearts, King of Clubs]</t>
+          <t>[2 of Hearts, 10 of Hearts, 7 of Diamonds]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[1 of Clubs]</t>
+          <t>[7 of Diamonds, 6 of Clubs, King of Clubs]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['Hit']</t>
+          <t>['Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[1 of Clubs, 10 of Hearts]</t>
+          <t>[Queen of Clubs, 5 of Hearts]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[4 of Clubs, Jack of Hearts, 7 of Clubs]</t>
+          <t>[6 of Diamonds, Jack of Clubs, 6 of Clubs]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2533,25 +2461,25 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[2 of Spades, King of Diamonds]</t>
+          <t>[5 of Diamonds, Queen of Clubs, 7 of Clubs]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[6 of Clubs, Queen of Spades, 4 of Diamonds]</t>
+          <t>[King of Spades]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -2560,29 +2488,29 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Hit']</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[2 of Hearts, Jack of Diamonds, 6 of Hearts]</t>
+          <t>[Jack of Diamonds, 2 of Diamonds, 8 of Spades]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[King of Diamonds, 8 of Spades]</t>
+          <t>[King of Diamonds, Queen of Hearts]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2595,25 +2523,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[Queen of Clubs, Jack of Hearts]</t>
+          <t>[3 of Clubs, 6 of Spades, 4 of Clubs]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[3 of Hearts, Queen of Spades, 10 of Clubs]</t>
+          <t>[4 of Clubs, 4 of Hearts, 8 of Hearts, 3 of Spades]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -2622,33 +2550,33 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Doubled']</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[9 of Clubs, 3 of Clubs]</t>
+          <t>[10 of Spades, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[6 of Clubs, 7 of Clubs, 1 of Hearts, 3 of Diamonds]</t>
+          <t>[1 of Spades, 9 of Spades]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Tie</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2657,118 +2585,118 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[10 of Spades, 7 of Spades]</t>
+          <t>[9 of Spades, 2 of Spades, Queen of Hearts]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[Queen of Hearts, King of Clubs]</t>
+          <t>[5 of Diamonds, 5 of Spades, 8 of Hearts]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Doubled']</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>100</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[10 of Clubs, 5 of Spades, Queen of Hearts]</t>
+          <t>[4 of Diamonds, 4 of Spades, King of Hearts]</t>
         </is>
       </c>
       <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[5 of Clubs, 5 of Hearts, 5 of Spades, Queen of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>25</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>[7 of Hearts]</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>7</v>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['Hit']</t>
+          <t>['Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[5 of Clubs, 3 of Clubs, 1 of Spades]</t>
+          <t>[3 of Clubs, Jack of Clubs, 2 of Clubs, 9 of Diamonds]</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[7 of Spades, 2 of Diamonds, 9 of Diamonds]</t>
+          <t>[9 of Clubs]</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Hit', 'Hit']</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>100</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[5 of Spades, 5 of Diamonds, King of Hearts]</t>
+          <t>[10 of Clubs, 7 of Spades]</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[4 of Spades, Jack of Clubs, 2 of Diamonds, 8 of Hearts]</t>
+          <t>[4 of Diamonds, 3 of Hearts, 3 of Hearts, 2 of Diamonds, Jack of Hearts]</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -2777,56 +2705,56 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['Doubled']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>100</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[4 of Hearts, 4 of Diamonds, King of Spades]</t>
+          <t>[8 of Spades, 8 of Diamonds, 6 of Diamonds]</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[2 of Clubs, 6 of Hearts, 9 of Spades]</t>
+          <t>[1 of Diamonds]</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Hit']</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[1 of Hearts, 10 of Diamonds]</t>
+          <t>[King of Clubs, 7 of Clubs]</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[2 of Clubs, Queen of Clubs, 1 of Spades, 6 of Diamonds]</t>
+          <t>[9 of Clubs, 10 of Diamonds]</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -2834,7 +2762,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2843,25 +2771,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[Queen of Diamonds, 10 of Spades]</t>
+          <t>[Queen of Spades, 1 of Spades]</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[2 of Hearts, 7 of Diamonds, 9 of Hearts]</t>
+          <t>[5 of Clubs, King of Spades, 9 of Diamonds]</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2874,21 +2802,21 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[7 of Diamonds, 10 of Diamonds]</t>
+          <t>[10 of Clubs, 6 of Spades]</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[3 of Spades, 4 of Clubs, 5 of Hearts, 1 of Diamonds, 5 of Clubs]</t>
+          <t>[4 of Hearts, 6 of Hearts, 8 of Clubs]</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -2905,21 +2833,21 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[Jack of Clubs, Jack of Spades]</t>
+          <t>[King of Hearts, 8 of Diamonds]</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[1 of Diamonds, King of Hearts]</t>
+          <t>[Queen of Spades, 1 of Hearts]</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -2936,21 +2864,21 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[Jack of Spades, 6 of Diamonds]</t>
+          <t>[10 of Hearts, 1 of Diamonds]</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[2 of Spades, 8 of Spades, Jack of Diamonds]</t>
+          <t>[9 of Hearts, 4 of Spades, 7 of Hearts]</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -2958,7 +2886,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2967,25 +2895,25 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[9 of Spades, 8 of Diamonds]</t>
+          <t>[10 of Diamonds, 1 of Clubs]</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[8 of Hearts, 6 of Spades, 9 of Diamonds]</t>
+          <t>[9 of Hearts, 7 of Spades, Jack of Diamonds]</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2998,7 +2926,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
     </row>
   </sheetData>
@@ -3012,7 +2940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3060,23 +2988,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[10 of Spades, Queen of Diamonds]</t>
+          <t>[Jack of Clubs, 6 of Hearts]</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[Jack of Spades, 10 of Hearts]</t>
+          <t>[2 of Clubs, 6 of Spades, 10 of Diamonds]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -3085,60 +3013,60 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[3 of Spades, 8 of Diamonds, 9 of Spades]</t>
+          <t>[5 of Hearts, Jack of Spades, Queen of Spades]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[5 of Clubs, 9 of Clubs, 8 of Spades]</t>
+          <t>[King of Spades]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['Doubled']</t>
+          <t>['Hit']</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[King of Diamonds, 7 of Spades]</t>
+          <t>[8 of Spades, 6 of Clubs]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[9 of Diamonds, 7 of Spades, Jack of Clubs]</t>
+          <t>[3 of Diamonds, 5 of Spades, 10 of Hearts]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -3147,13 +3075,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[4 of Hearts, 4 of Clubs, King of Clubs]</t>
+          <t>[Queen of Clubs, 8 of Hearts]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3161,46 +3089,46 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[1 of Spades, 3 of Diamonds, 7 of Diamonds]</t>
+          <t>[Jack of Diamonds, 5 of Hearts, 10 of Diamonds]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[10 of Spades, 5 of Hearts]</t>
+          <t>[Queen of Spades, 3 of Diamonds]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[4 of Hearts, Queen of Spades, Queen of Clubs]</t>
+          <t>[2 of Diamonds, 9 of Clubs, 9 of Spades]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -3209,25 +3137,25 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[8 of Clubs, Queen of Diamonds]</t>
+          <t>[7 of Clubs, 3 of Hearts, 7 of Spades]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[6 of Hearts, 1 of Clubs]</t>
+          <t>[9 of Diamonds, King of Hearts]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -3236,33 +3164,33 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Doubled']</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, King of Diamonds]</t>
+          <t>[King of Clubs, 10 of Clubs]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[6 of Spades, 4 of Diamonds, Queen of Spades]</t>
+          <t>[10 of Clubs, 2 of Diamonds, 5 of Clubs]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -3271,56 +3199,56 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[2 of Hearts, 9 of Clubs, King of Hearts]</t>
+          <t>[King of Diamonds, 7 of Diamonds]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[8 of Spades, 3 of Clubs, Jack of Clubs]</t>
+          <t>[1 of Spades, 7 of Hearts]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['Doubled']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[1 of Diamonds, 8 of Hearts]</t>
+          <t>[3 of Spades, 2 of Hearts, 3 of Spades, 6 of Spades, 7 of Spades]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[9 of Hearts, Queen of Clubs]</t>
+          <t>[10 of Hearts, 1 of Diamonds]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -3329,48 +3257,48 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Hit', 'Hit', 'Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[4 of Spades, 7 of Hearts, 5 of Spades]</t>
+          <t>[4 of Clubs, 9 of Spades, King of Hearts]</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[King of Clubs, 2 of Clubs, 3 of Hearts, 1 of Hearts, 8 of Clubs]</t>
+          <t>[Queen of Clubs]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['Doubled']</t>
+          <t>['Hit']</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[1 of Hearts, Jack of Diamonds]</t>
+          <t>[4 of Clubs, 4 of Spades, 4 of Spades, 9 of Hearts]</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -3378,11 +3306,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, Jack of Hearts, 9 of Hearts]</t>
+          <t>[King of Spades, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -3391,25 +3319,25 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Hit', 'Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[7 of Diamonds, 5 of Clubs, 6 of Diamonds]</t>
+          <t>[3 of Clubs, 10 of Spades, 6 of Hearts]</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[1 of Spades, 3 of Diamonds, 7 of Hearts]</t>
+          <t>[1 of Hearts, Jack of Spades]</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -3426,25 +3354,25 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[2 of Spades, 4 of Spades, 1 of Diamonds]</t>
+          <t>[Jack of Clubs, Queen of Hearts]</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 2 of Clubs, 5 of Diamonds, 3 of Clubs, 10 of Clubs]</t>
+          <t>[9 of Hearts, 6 of Diamonds, King of Diamonds]</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -3453,29 +3381,29 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[4 of Clubs, King of Spades, 9 of Diamonds]</t>
+          <t>[8 of Diamonds, 4 of Hearts]</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[10 of Diamonds]</t>
+          <t>[6 of Diamonds, 7 of Hearts, 8 of Clubs]</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -3484,126 +3412,126 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['Hit']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[8 of Diamonds, 5 of Hearts, Jack of Hearts]</t>
+          <t>[8 of Diamonds, 1 of Clubs]</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[7 of Clubs]</t>
+          <t>[4 of Diamonds, King of Clubs, 2 of Hearts, 3 of Hearts]</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Tie</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['Hit']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[8 of Hearts, 10 of Diamonds]</t>
+          <t>[5 of Clubs, 4 of Diamonds, 8 of Hearts]</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[King of Hearts, 2 of Spades, Queen of Hearts]</t>
+          <t>[1 of Diamonds, Jack of Hearts]</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[Queen of Hearts, 5 of Diamonds]</t>
+          <t>[10 of Spades, 4 of Hearts, 7 of Clubs]</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[3 of Spades, 2 of Hearts, 6 of Diamonds, 5 of Spades, 10 of Hearts]</t>
+          <t>[1 of Spades, Jack of Diamonds]</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Tie</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, 6 of Spades]</t>
+          <t>[9 of Clubs, 1 of Hearts]</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[6 of Hearts, King of Spades, 6 of Clubs]</t>
+          <t>[Jack of Hearts, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Tie</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -3612,7 +3540,38 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>400</v>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>[6 of Clubs, 1 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[8 of Spades, 5 of Diamonds, 2 of Spades, Queen of Hearts]</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>25</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -3674,19 +3633,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[4 of Hearts, Jack of Diamonds, 7 of Clubs]</t>
+          <t>[1 of Hearts, 6 of Hearts]</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[10 of Hearts, 5 of Diamonds, 2 of Spades]</t>
+          <t>[7 of Diamonds, 2 of Spades, 7 of Clubs, Jack of Spades]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -3695,33 +3654,33 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[1 of Diamonds, Queen of Spades]</t>
+          <t>[9 of Spades, 10 of Clubs]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[King of Hearts, 4 of Clubs, 9 of Diamonds]</t>
+          <t>[8 of Clubs, 2 of Hearts, 9 of Hearts]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Tie</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -3730,44 +3689,44 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[2 of Hearts, 1 of Clubs, 6 of Diamonds]</t>
+          <t>[1 of Spades, Jack of Clubs]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[8 of Hearts, 5 of Spades, 7 of Diamonds]</t>
+          <t>[8 of Diamonds, 4 of Diamonds, 10 of Clubs]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[3 of Diamonds, King of Clubs, 2 of Diamonds, 5 of Hearts]</t>
+          <t>[3 of Diamonds, 9 of Hearts, 8 of Spades]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3775,30 +3734,30 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[1 of Clubs, Queen of Diamonds]</t>
+          <t>[Jack of Clubs, 10 of Hearts]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Tie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['Hit', 'Hit', 'Stand']</t>
+          <t>['Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[Jack of Spades, 3 of Hearts, 2 of Spades, 10 of Clubs]</t>
+          <t>[King of Spades, 3 of Spades, 2 of Spades, King of Clubs]</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3806,11 +3765,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[9 of Clubs]</t>
+          <t>[8 of Hearts]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -3823,21 +3782,21 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[8 of Spades, King of Diamonds]</t>
+          <t>[9 of Diamonds, King of Hearts]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[8 of Diamonds, 6 of Clubs, 3 of Hearts]</t>
+          <t>[8 of Spades, 9 of Diamonds]</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -3854,52 +3813,52 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[9 of Spades, 3 of Spades, King of Hearts]</t>
+          <t>[3 of Spades, 1 of Clubs]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[Queen of Clubs]</t>
+          <t>[4 of Clubs, 6 of Diamonds, 3 of Clubs, Queen of Clubs]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['Hit']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[1 of Spades, 7 of Spades]</t>
+          <t>[3 of Hearts, Queen of Hearts]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[4 of Clubs, 8 of Clubs, 9 of Clubs]</t>
+          <t>[5 of Diamonds, 1 of Diamonds, 5 of Hearts]</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -3916,21 +3875,21 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, 6 of Clubs]</t>
+          <t>[Jack of Hearts, 9 of Clubs]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, 10 of Clubs, 10 of Spades]</t>
+          <t>[5 of Spades, Queen of Spades, 1 of Clubs, 6 of Spades]</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -3947,25 +3906,25 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[3 of Diamonds, 9 of Spades, 9 of Hearts]</t>
+          <t>[10 of Diamonds, 3 of Hearts]</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[10 of Hearts, 7 of Hearts]</t>
+          <t>[3 of Diamonds, 4 of Clubs, 7 of Diamonds, 9 of Spades]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -3974,29 +3933,29 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[5 of Diamonds, 1 of Diamonds]</t>
+          <t>[Queen of Clubs, 6 of Hearts, 5 of Clubs]</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[2 of Clubs, 1 of Hearts, 10 of Diamonds, 1 of Hearts, Queen of Hearts]</t>
+          <t>[King of Spades, King of Diamonds]</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -4005,29 +3964,29 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[8 of Spades, King of Diamonds]</t>
+          <t>[6 of Spades, 4 of Hearts, Queen of Hearts]</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, 4 of Spades, King of Spades]</t>
+          <t>[2 of Hearts, 10 of Spades, 5 of Diamonds]</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -4036,30 +3995,30 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Doubled']</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[9 of Diamonds, 7 of Spades, 3 of Clubs]</t>
+          <t>[King of Hearts, 1 of Hearts]</t>
         </is>
       </c>
       <c r="B14" t="n">
+        <v>21</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[9 of Clubs, 10 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>19</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>[King of Spades, 8 of Hearts]</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>18</v>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>Win</t>
@@ -4067,64 +4026,64 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, Queen of Diamonds, 4 of Diamonds]</t>
+          <t>[King of Diamonds, 2 of Diamonds, 4 of Hearts, 8 of Diamonds]</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[Jack of Spades, 8 of Diamonds]</t>
+          <t>[7 of Spades]</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Hit', 'Hit']</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[4 of Hearts, King of Clubs]</t>
+          <t>[10 of Spades, Queen of Spades]</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[2 of Clubs, 6 of Spades, 6 of Hearts, 1 of Spades, 10 of Diamonds]</t>
+          <t>[Jack of Hearts, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Tie</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -4133,25 +4092,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[Jack of Clubs, 6 of Hearts, 5 of Hearts]</t>
+          <t>[5 of Hearts, 7 of Clubs]</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[8 of Clubs, Queen of Clubs]</t>
+          <t>[5 of Spades, Queen of Diamonds, 7 of Hearts]</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -4160,29 +4119,29 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>900</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[Queen of Spades, 5 of Clubs]</t>
+          <t>[10 of Hearts, Jack of Diamonds]</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[6 of Diamonds, Jack of Diamonds, 6 of Spades]</t>
+          <t>[8 of Clubs, 4 of Spades, 5 of Clubs]</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -4195,13 +4154,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[5 of Clubs, 9 of Hearts, 3 of Clubs]</t>
+          <t>[7 of Spades, 4 of Diamonds, 6 of Clubs]</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -4209,24 +4168,24 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Queen of Hearts, Jack of Clubs]</t>
+          <t>[3 of Clubs, 2 of Clubs, 6 of Diamonds, 2 of Diamonds, 4 of Spades]</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Tie</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Doubled']</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>900</v>
+        <v>1600</v>
       </c>
     </row>
   </sheetData>
@@ -4288,15 +4247,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[1 of Spades, 2 of Hearts]</t>
+          <t>[7 of Spades, 5 of Clubs, 4 of Diamonds, 1 of Diamonds]</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[5 of Clubs, King of Clubs, 2 of Hearts]</t>
+          <t>[7 of Diamonds, 3 of Diamonds, 4 of Clubs, 3 of Clubs]</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -4304,43 +4263,43 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Tie</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Hit', 'Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[9 of Spades, Queen of Clubs]</t>
+          <t>[5 of Clubs, 1 of Spades, 8 of Clubs, King of Clubs]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, 8 of Hearts]</t>
+          <t>[9 of Diamonds]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Hit', 'Hit']</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -4350,23 +4309,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[7 of Diamonds, 10 of Spades]</t>
+          <t>[1 of Hearts, King of Spades]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[10 of Clubs, Queen of Hearts]</t>
+          <t>[1 of Clubs, Jack of Spades]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Tie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -4375,87 +4334,87 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[4 of Hearts, Queen of Clubs, 4 of Clubs]</t>
+          <t>[1 of Clubs, Jack of Clubs]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[8 of Spades, 2 of Clubs, 2 of Spades, 2 of Diamonds, 5 of Diamonds]</t>
+          <t>[1 of Spades, 6 of Diamonds]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[6 of Hearts, King of Spades, 5 of Spades]</t>
+          <t>[9 of Spades, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[9 of Diamonds, 6 of Spades, 6 of Clubs]</t>
+          <t>[5 of Spades, 3 of Hearts, 8 of Hearts, 7 of Diamonds]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, Jack of Spades]</t>
+          <t>[2 of Hearts, 1 of Diamonds]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[6 of Diamonds, 7 of Spades, 10 of Diamonds]</t>
+          <t>[3 of Hearts, 5 of Hearts, 4 of Hearts, Queen of Hearts]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -4468,56 +4427,56 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[Jack of Clubs, 2 of Spades, Queen of Diamonds]</t>
+          <t>[Jack of Clubs, Queen of Spades]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[King of Clubs]</t>
+          <t>[Queen of Hearts, 4 of Hearts, 3 of Spades]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['Hit']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[King of Spades, 2 of Clubs, 3 of Clubs]</t>
+          <t>[King of Diamonds, 8 of Clubs]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[3 of Diamonds, Queen of Spades, 3 of Clubs, 10 of Hearts]</t>
+          <t>[5 of Hearts, 9 of Clubs, 1 of Hearts, 7 of Clubs]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -4526,48 +4485,48 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[5 of Diamonds, 4 of Hearts, 10 of Clubs]</t>
+          <t>[9 of Clubs, 6 of Diamonds, King of Hearts]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[6 of Clubs, 8 of Hearts, 7 of Clubs]</t>
+          <t>[Queen of Clubs]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['Doubled']</t>
+          <t>['Hit']</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[King of Diamonds, Queen of Diamonds]</t>
+          <t>[10 of Spades, Queen of Clubs]</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -4575,11 +4534,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 7 of Spades, 9 of Hearts]</t>
+          <t>[Jack of Hearts, 7 of Spades]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -4592,25 +4551,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[10 of Spades, 5 of Hearts, 2 of Diamonds]</t>
+          <t>[8 of Spades, 2 of Diamonds, 3 of Clubs, 9 of Hearts]</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, 5 of Clubs, 3 of Spades]</t>
+          <t>[10 of Diamonds]</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -4619,48 +4578,48 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Hit', 'Hit']</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[1 of Hearts, 7 of Diamonds]</t>
+          <t>[8 of Diamonds, 6 of Clubs, 7 of Hearts]</t>
         </is>
       </c>
       <c r="B13" t="n">
+        <v>21</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[10 of Hearts, 8 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>18</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>[1 of Spades, 1 of Hearts, 9 of Clubs]</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>21</v>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[7 of Hearts, 1 of Diamonds]</t>
+          <t>[8 of Hearts, Jack of Diamonds]</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -4668,15 +4627,15 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[6 of Hearts, 8 of Spades, 1 of Clubs, 1 of Clubs, 8 of Clubs]</t>
+          <t>[Jack of Hearts, 6 of Spades, 2 of Clubs]</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Tie</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -4685,25 +4644,25 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[6 of Spades, 9 of Diamonds]</t>
+          <t>[Jack of Diamonds, 4 of Spades]</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[3 of Spades, 8 of Clubs, 3 of Diamonds, 4 of Diamonds]</t>
+          <t>[6 of Clubs, 2 of Diamonds, 3 of Spades, King of Clubs]</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -4716,56 +4675,56 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[8 of Diamonds, 10 of Hearts]</t>
+          <t>[King of Spades, 5 of Spades, 2 of Spades]</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[4 of Clubs, 9 of Hearts, 7 of Hearts]</t>
+          <t>[King of Diamonds, 2 of Clubs, 10 of Clubs]</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[5 of Hearts, King of Hearts]</t>
+          <t>[10 of Spades, 5 of Diamonds, 5 of Diamonds]</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 4 of Spades, 5 of Spades, King of Hearts]</t>
+          <t>[9 of Spades, 2 of Spades, 8 of Spades]</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -4774,60 +4733,60 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[9 of Clubs, Queen of Hearts]</t>
+          <t>[4 of Clubs, 6 of Hearts, 7 of Hearts]</t>
         </is>
       </c>
       <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[Jack of Spades, 9 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
         <v>19</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>[9 of Spades, 4 of Diamonds, 4 of Spades]</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>17</v>
-      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[Jack of Spades, 6 of Diamonds, Jack of Clubs]</t>
+          <t>[Queen of Diamonds, 3 of Diamonds]</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[8 of Diamonds]</t>
+          <t>[6 of Hearts, 4 of Spades, 10 of Hearts]</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -4836,11 +4795,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['Hit']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
     </row>
   </sheetData>
@@ -4902,19 +4861,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[Queen of Diamonds, King of Spades]</t>
+          <t>[10 of Spades, 8 of Diamonds]</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[4 of Spades, 9 of Spades, King of Hearts]</t>
+          <t>[6 of Spades, King of Clubs, 8 of Spades]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -4927,88 +4886,88 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[8 of Spades, 7 of Clubs]</t>
+          <t>[9 of Clubs, 7 of Clubs, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[3 of Spades, 3 of Hearts, King of Diamonds, 6 of Spades]</t>
+          <t>[10 of Clubs]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Hit']</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[8 of Clubs, 9 of Hearts]</t>
+          <t>[3 of Clubs, 9 of Hearts, 1 of Hearts, Jack of Clubs]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[6 of Diamonds, Jack of Spades, King of Clubs]</t>
+          <t>[King of Hearts]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Hit', 'Hit']</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[1 of Clubs, Queen of Spades]</t>
+          <t>[5 of Clubs, 6 of Hearts, 1 of Clubs]</t>
         </is>
       </c>
       <c r="B5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[4 of Diamonds, 6 of Clubs, 1 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>21</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[1 of Diamonds, 2 of Clubs, 7 of Clubs]</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>20</v>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Win</t>
@@ -5016,29 +4975,29 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Doubled']</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[5 of Hearts, Jack of Clubs, 7 of Hearts]</t>
+          <t>[4 of Hearts, 6 of Diamonds, 7 of Spades]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[King of Clubs]</t>
+          <t>[10 of Diamonds, 2 of Diamonds, 2 of Clubs, 4 of Spades]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -5047,33 +5006,33 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['Hit']</t>
+          <t>['Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[6 of Clubs, 10 of Diamonds, 4 of Clubs]</t>
+          <t>[4 of Spades, 3 of Hearts, 9 of Spades]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[10 of Clubs, 6 of Diamonds, 1 of Hearts]</t>
+          <t>[5 of Hearts, 5 of Clubs, 9 of Hearts]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -5082,25 +5041,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[5 of Clubs, 10 of Diamonds, 8 of Spades]</t>
+          <t>[4 of Diamonds, 3 of Hearts, 3 of Spades, 7 of Diamonds]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[1 of Diamonds]</t>
+          <t>[3 of Clubs, 10 of Hearts, 3 of Diamonds, 5 of Diamonds]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -5109,25 +5068,25 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['Hit']</t>
+          <t>['Hit', 'Hit', 'Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[8 of Diamonds, King of Hearts]</t>
+          <t>[1 of Diamonds, 4 of Hearts, 1 of Hearts, 1 of Spades]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[8 of Clubs, Jack of Diamonds]</t>
+          <t>[King of Clubs, 3 of Diamonds, 5 of Hearts]</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -5135,38 +5094,38 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Hit', 'Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[10 of Hearts, 8 of Hearts]</t>
+          <t>[10 of Diamonds, 6 of Diamonds]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[8 of Hearts, 8 of Diamonds, 2 of Clubs]</t>
+          <t>[5 of Spades, Jack of Hearts, 9 of Clubs]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -5175,150 +5134,150 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[King of Diamonds, 9 of Clubs]</t>
+          <t>[5 of Diamonds, 8 of Spades, 10 of Hearts]</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[6 of Clubs, 9 of Diamonds, 7 of Hearts]</t>
+          <t>[1 of Spades]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Hit']</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[1 of Spades, 1 of Spades, 6 of Hearts]</t>
+          <t>[2 of Clubs, Queen of Hearts, Queen of Spades]</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[King of Spades, 4 of Diamonds, Jack of Diamonds]</t>
+          <t>[2 of Hearts]</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Hit']</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[5 of Spades, 3 of Clubs, 2 of Hearts, 2 of Hearts, 7 of Spades]</t>
+          <t>[9 of Diamonds, 8 of Diamonds]</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[Queen of Spades, 3 of Diamonds, 2 of Spades, 3 of Diamonds]</t>
+          <t>[Queen of Hearts, King of Spades]</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['Hit', 'Hit', 'Hit', 'Stand']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[Queen of Clubs, 1 of Hearts]</t>
+          <t>[2 of Spades, Jack of Hearts, Jack of Spades]</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[7 of Diamonds, Jack of Hearts]</t>
+          <t>[8 of Hearts]</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Hit']</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[4 of Clubs, 4 of Hearts, 9 of Diamonds]</t>
+          <t>[Jack of Diamonds, 3 of Spades, 8 of Hearts]</t>
         </is>
       </c>
       <c r="B15" t="n">
+        <v>21</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[9 of Spades, 2 of Hearts, 6 of Spades]</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>17</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>[4 of Hearts, 2 of Diamonds, 4 of Diamonds, 3 of Clubs, 3 of Hearts, Queen of Hearts]</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>26</v>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>Win</t>
@@ -5330,25 +5289,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1700</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[5 of Diamonds, 5 of Clubs, 10 of Clubs]</t>
+          <t>[7 of Clubs, 2 of Diamonds, King of Spades]</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[10 of Spades, Jack of Spades]</t>
+          <t>[9 of Diamonds, Jack of Clubs]</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -5361,21 +5320,21 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1700</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[2 of Spades, 1 of Clubs]</t>
+          <t>[King of Hearts, Jack of Diamonds]</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[5 of Diamonds, Jack of Hearts, 7 of Diamonds]</t>
+          <t>[4 of Clubs, 8 of Clubs, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -5392,29 +5351,29 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[Queen of Clubs, 9 of Hearts]</t>
+          <t>[Queen of Spades, 7 of Diamonds]</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[5 of Spades, 10 of Spades, Queen of Hearts]</t>
+          <t>[10 of Spades, Jack of Spades]</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -5423,25 +5382,25 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1900</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[6 of Spades, 3 of Spades, 6 of Hearts, 5 of Hearts]</t>
+          <t>[6 of Clubs, 10 of Clubs]</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[9 of Clubs, 10 of Hearts]</t>
+          <t>[4 of Clubs, 2 of Spades, 6 of Hearts, King of Diamonds]</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -5450,11 +5409,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['Hit', 'Hit', 'Stand']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -5463,6 +5422,651 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Hand</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Player Hand Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dealer Hand</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dealer Hand Value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Money</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>[Jack of Hearts, 1 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[9 of Clubs, 7 of Clubs, 6 of Spades]</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>[9 of Clubs, 4 of Clubs, 6 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>19</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[King of Clubs, 2 of Clubs, 6 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>18</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>[7 of Spades, King of Hearts]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>17</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[3 of Spades, 7 of Diamonds, King of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>[4 of Spades, 10 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>14</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[3 of Clubs, 3 of Diamonds, 3 of Spades, 10 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>19</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>[Jack of Spades, 2 of Spades, 10 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>22</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[Queen of Hearts]</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['Hit']</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>[2 of Hearts, 8 of Spades, 5 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>15</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[7 of Clubs, 4 of Hearts, 6 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>17</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['Doubled']</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>[8 of Hearts, 5 of Clubs, Jack of Spades]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>23</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[7 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['Hit']</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>[1 of Clubs, 8 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>19</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[10 of Clubs, 7 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>17</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>[10 of Spades, King of Spades]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>20</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[Queen of Spades, King of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>[3 of Hearts, 4 of Diamonds, 1 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[8 of Clubs, 1 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>19</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>[5 of Clubs, Queen of Diamonds, 1 of Diamonds, 5 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>21</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[Queen of Clubs, 4 of Diamonds, 9 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>23</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>['Hit', 'Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>[7 of Spades, 8 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>15</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[5 of Spades, 6 of Diamonds, 9 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>20</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>[1 of Spades, 9 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[2 of Spades, King of Spades, Jack of Hearts]</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>22</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>[8 of Hearts, Jack of Clubs]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>18</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[10 of Hearts, 6 of Spades, 9 of Spades]</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>25</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>[4 of Clubs, 10 of Spades, 4 of Spades]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>18</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[8 of Spades, 3 of Diamonds, 5 of Hearts, 1 of Spades]</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>17</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>['Hit', 'Stand']</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>[Jack of Diamonds, King of Clubs]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>20</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[Queen of Hearts, Queen of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>['Stand']</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>[2 of Hearts, 9 of Diamonds, 5 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[4 of Hearts, 7 of Diamonds, 8 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>19</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>['Doubled']</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>[King of Hearts, 5 of Spades, 1 of Diamonds, 6 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>22</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[10 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>['Hit', 'Hit']</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>[2 of Diamonds, 3 of Hearts, Jack of Diamonds, Jack of Clubs]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>25</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[Queen of Clubs]</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>10</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>['Hit', 'Hit']</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5516,7 +6120,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[6 of Clubs, King of Clubs, 4 of Spades]</t>
+          <t>[Queen of Clubs, King of Spades]</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -5524,11 +6128,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[Queen of Diamonds, 9 of Clubs]</t>
+          <t>[2 of Diamonds, 5 of Hearts, 2 of Hearts, 7 of Clubs, 9 of Hearts]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -5537,29 +6141,29 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2100</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[3 of Diamonds, 5 of Hearts, 8 of Diamonds, 3 of Spades]</t>
+          <t>[3 of Spades, 5 of Diamonds, 7 of Hearts, King of Diamonds]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, King of Spades]</t>
+          <t>[7 of Hearts]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -5568,60 +6172,60 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['Hit', 'Hit', 'Stand']</t>
+          <t>['Hit', 'Hit']</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[2 of Spades, King of Hearts, 2 of Clubs, Queen of Spades]</t>
+          <t>[6 of Spades, King of Hearts, 4 of Clubs]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[7 of Spades]</t>
+          <t>[Jack of Spades, Jack of Spades]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Tie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['Hit', 'Hit']</t>
+          <t>['Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[Queen of Clubs, 6 of Diamonds, 1 of Hearts]</t>
+          <t>[9 of Diamonds, Queen of Clubs]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[8 of Hearts, King of Spades]</t>
+          <t>[2 of Hearts, King of Hearts, 8 of Diamonds]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -5630,29 +6234,29 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, 7 of Hearts, 7 of Diamonds]</t>
+          <t>[2 of Clubs, King of Clubs, 7 of Diamonds]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[4 of Clubs, Jack of Clubs, 4 of Clubs]</t>
+          <t>[7 of Clubs, 9 of Spades, 3 of Hearts]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -5661,17 +6265,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['Doubled']</t>
+          <t>['Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1700</v>
+        <v>900</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[10 of Clubs, King of Clubs]</t>
+          <t>[Jack of Clubs, Jack of Clubs]</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -5679,11 +6283,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[9 of Diamonds, 9 of Hearts]</t>
+          <t>[3 of Clubs, 6 of Hearts, 10 of Hearts]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -5696,13 +6300,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, 10 of Hearts, 7 of Clubs]</t>
+          <t>[9 of Diamonds, Queen of Spades]</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -5710,42 +6314,42 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[2 of Hearts, 10 of Diamonds, 5 of Spades]</t>
+          <t>[6 of Clubs, 5 of Clubs, 10 of Spades]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1900</v>
+        <v>900</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[Queen of Diamonds, 10 of Hearts]</t>
+          <t>[4 of Hearts, 1 of Hearts, 6 of Clubs]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[Queen of Spades, 8 of Spades]</t>
+          <t>[7 of Spades, 8 of Clubs, 8 of Hearts]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -5754,29 +6358,29 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['Stand']</t>
+          <t>['Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[8 of Hearts, 6 of Spades, 8 of Spades]</t>
+          <t>[8 of Clubs, 5 of Clubs, Jack of Hearts]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[7 of Diamonds]</t>
+          <t>[10 of Hearts]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -5789,25 +6393,25 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1900</v>
+        <v>900</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 6 of Clubs, Jack of Diamonds]</t>
+          <t>[5 of Diamonds, 1 of Diamonds, King of Spades, 6 of Spades]</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[9 of Clubs, 2 of Clubs, Jack of Hearts]</t>
+          <t>[Queen of Hearts]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -5816,29 +6420,29 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Hit', 'Hit']</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[6 of Diamonds, 4 of Diamonds, 2 of Diamonds, 1 of Spades, 3 of Diamonds, 9 of Hearts]</t>
+          <t>[King of Diamonds, 9 of Spades]</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[Queen of Clubs]</t>
+          <t>[8 of Hearts, 8 of Diamonds, 5 of Spades]</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -5847,29 +6451,29 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['Hit', 'Hit', 'Hit', 'Hit']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1700</v>
+        <v>700</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[8 of Clubs, 3 of Hearts, 1 of Spades]</t>
+          <t>[8 of Spades, Jack of Hearts]</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[8 of Clubs, 6 of Hearts, Jack of Clubs]</t>
+          <t>[4 of Spades, 4 of Spades, 5 of Hearts, 3 of Clubs, 1 of Spades]</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -5878,29 +6482,29 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['Doubled']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[Jack of Spades, 4 of Hearts, 5 of Spades]</t>
+          <t>[4 of Clubs, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[7 of Clubs, 4 of Spades, 7 of Spades]</t>
+          <t>[4 of Hearts, 8 of Spades, 1 of Hearts, 9 of Hearts]</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -5909,29 +6513,29 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[2 of Spades, 1 of Hearts, 3 of Clubs, 10 of Spades, 10 of Spades]</t>
+          <t>[Queen of Diamonds, 2 of Spades, 4 of Diamonds, 2 of Diamonds]</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[9 of Diamonds]</t>
+          <t>[1 of Diamonds, 10 of Spades]</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -5940,33 +6544,33 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['Hit', 'Hit', 'Hit']</t>
+          <t>['Hit', 'Hit', 'Stand']</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[10 of Diamonds, Jack of Diamonds]</t>
+          <t>[7 of Spades, 10 of Clubs]</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[King of Hearts, 9 of Spades]</t>
+          <t>[5 of Spades, 3 of Diamonds, Queen of Spades]</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -5975,25 +6579,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[Jack of Spades, King of Diamonds]</t>
+          <t>[6 of Diamonds, 7 of Diamonds]</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[8 of Diamonds, 1 of Diamonds]</t>
+          <t>[3 of Spades, 9 of Clubs, 3 of Diamonds, Jack of Diamonds]</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6006,56 +6610,56 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1900</v>
+        <v>800</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[5 of Clubs, 3 of Spades, 7 of Hearts]</t>
+          <t>[3 of Hearts, 1 of Clubs]</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[2 of Hearts, 9 of Spades, 5 of Clubs, Queen of Hearts]</t>
+          <t>[6 of Hearts, Jack of Diamonds, 2 of Clubs]</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2000</v>
+        <v>700</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[3 of Clubs, 1 of Clubs, 6 of Hearts]</t>
+          <t>[Queen of Hearts, 1 of Spades]</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[1 of Clubs, 5 of Diamonds, 1 of Diamonds]</t>
+          <t>[10 of Diamonds, 2 of Spades, 1 of Clubs, 9 of Clubs]</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6064,656 +6668,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['Hit', 'Stand']</t>
+          <t>['Stand']</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Player Hand</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Player Hand Value</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Dealer Hand</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Dealer Hand Value</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Action</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Money</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>[King of Spades, 3 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>13</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[2 of Spades, Queen of Clubs, 6 of Spades]</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>['Stand']</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>[King of Diamonds, 6 of Spades, Queen of Spades]</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>26</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[8 of Clubs]</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>8</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>['Hit']</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>[9 of Spades, 5 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>14</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[3 of Hearts, 8 of Hearts, 2 of Clubs, 9 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>22</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>['Stand']</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>[King of Hearts, 1 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>21</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[2 of Hearts, 9 of Clubs, 9 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>20</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>['Stand']</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>[9 of Hearts, 5 of Diamonds, 5 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>19</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[7 of Clubs, King of Clubs]</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>17</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>['Hit', 'Stand']</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>[Jack of Diamonds, Queen of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>20</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>[1 of Clubs, 10 of Hearts]</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>21</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>['Stand']</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>[10 of Clubs, 2 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>12</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>[5 of Spades, 7 of Hearts, 2 of Diamonds, Jack of Hearts]</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>24</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>['Stand']</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>[4 of Spades, 5 of Diamonds, 1 of Spades]</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>20</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>[6 of Hearts, 10 of Diamonds, 5 of Clubs]</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>21</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>['Doubled']</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>[10 of Clubs, 9 of Spades]</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>19</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>[7 of Clubs, 10 of Spades]</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>17</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>['Stand']</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>[Jack of Spades, 4 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>14</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>[3 of Clubs, 7 of Hearts, Queen of Diamonds]</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>20</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>['Stand']</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>[3 of Clubs, King of Clubs, 3 of Hearts, 5 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>21</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>[7 of Diamonds, 6 of Clubs, 2 of Clubs, 8 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>23</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>['Hit', 'Hit', 'Stand']</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>[8 of Diamonds, 1 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>19</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>[6 of Hearts, 10 of Spades, 5 of Spades]</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>21</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>['Stand']</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>[Jack of Hearts, 8 of Spades]</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>18</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>[1 of Diamonds, 10 of Hearts]</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>21</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>['Stand']</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>[8 of Hearts, King of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>18</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>[6 of Clubs, 1 of Clubs]</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>17</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>['Stand']</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>[9 of Clubs, Jack of Clubs]</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>19</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>[Queen of Spades, 4 of Diamonds, 4 of Hearts]</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>18</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>['Stand']</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>[4 of Diamonds, Queen of Clubs, 9 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>23</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>[1 of Hearts]</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>11</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>['Hit']</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>[2 of Spades, 4 of Clubs, 8 of Spades, Jack of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>24</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>[Jack of Clubs]</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>['Hit', 'Hit']</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>[3 of Spades, King of Hearts, 7 of Spades]</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>20</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>[7 of Spades, 4 of Hearts, Queen of Hearts]</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>21</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>['Hit', 'Stand']</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>[King of Spades, 7 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>17</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>[2 of Hearts, 6 of Diamonds, 6 of Diamonds, 3 of Spades]</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>17</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Tie</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>['Stand']</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>2200</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
